--- a/project/CV/CV_69.xlsx
+++ b/project/CV/CV_69.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,937 +498,2068 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>allegany</t>
+          <t>adams</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>515374</v>
+        <v>22160</v>
       </c>
       <c r="D2" t="n">
-        <v>15923</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>24001</v>
+        <v>38001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.219</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01</v>
+        <v>0.166</v>
       </c>
       <c r="I2" t="n">
-        <v>0.035</v>
+        <v>0.189</v>
       </c>
       <c r="J2" t="n">
-        <v>0.213</v>
+        <v>0.233</v>
       </c>
       <c r="K2" t="n">
-        <v>0.736</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>anne arundel</t>
+          <t>barnes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3680172</v>
+        <v>130540</v>
       </c>
       <c r="D3" t="n">
-        <v>77629</v>
+        <v>2199</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>24003</v>
+        <v>38003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.018</v>
+        <v>0.111</v>
       </c>
       <c r="H3" t="n">
-        <v>0.022</v>
+        <v>0.079</v>
       </c>
       <c r="I3" t="n">
-        <v>0.067</v>
+        <v>0.137</v>
       </c>
       <c r="J3" t="n">
-        <v>0.154</v>
+        <v>0.248</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7390000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>baltimore</t>
+          <t>benson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5984085</v>
+        <v>119920</v>
       </c>
       <c r="D4" t="n">
-        <v>187065</v>
+        <v>2077</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>24005</v>
+        <v>38005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.013</v>
+        <v>0.289</v>
       </c>
       <c r="H4" t="n">
-        <v>0.024</v>
+        <v>0.194</v>
       </c>
       <c r="I4" t="n">
-        <v>0.043</v>
+        <v>0.118</v>
       </c>
       <c r="J4" t="n">
-        <v>0.142</v>
+        <v>0.195</v>
       </c>
       <c r="K4" t="n">
-        <v>0.777</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>baltimore city</t>
+          <t>billings</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5092516</v>
+        <v>6017</v>
       </c>
       <c r="D5" t="n">
-        <v>140538</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>24510</v>
+        <v>38007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.024</v>
+        <v>0.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.032</v>
+        <v>0.201</v>
       </c>
       <c r="I5" t="n">
-        <v>0.063</v>
+        <v>0.137</v>
       </c>
       <c r="J5" t="n">
-        <v>0.148</v>
+        <v>0.244</v>
       </c>
       <c r="K5" t="n">
-        <v>0.733</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>calvert</t>
+          <t>bottineau</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>352663</v>
+        <v>67150</v>
       </c>
       <c r="D6" t="n">
-        <v>9169</v>
+        <v>2399</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>24009</v>
+        <v>38009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.049</v>
+        <v>0.206</v>
       </c>
       <c r="H6" t="n">
-        <v>0.049</v>
+        <v>0.119</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="J6" t="n">
-        <v>0.11</v>
+        <v>0.259</v>
       </c>
       <c r="K6" t="n">
-        <v>0.72</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>caroline</t>
+          <t>bowman</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>214768</v>
+        <v>32126</v>
       </c>
       <c r="D7" t="n">
-        <v>1796</v>
+        <v>406</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>24011</v>
+        <v>38011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.188</v>
       </c>
       <c r="H7" t="n">
-        <v>0.019</v>
+        <v>0.141</v>
       </c>
       <c r="I7" t="n">
-        <v>0.033</v>
+        <v>0.146</v>
       </c>
       <c r="J7" t="n">
-        <v>0.168</v>
+        <v>0.262</v>
       </c>
       <c r="K7" t="n">
-        <v>0.77</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>carroll</t>
+          <t>burke</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>762983</v>
+        <v>22877</v>
       </c>
       <c r="D8" t="n">
-        <v>37730</v>
+        <v>176</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>24013</v>
+        <v>38013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.014</v>
+        <v>0.191</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008</v>
+        <v>0.147</v>
       </c>
       <c r="I8" t="n">
-        <v>0.062</v>
+        <v>0.151</v>
       </c>
       <c r="J8" t="n">
-        <v>0.17</v>
+        <v>0.258</v>
       </c>
       <c r="K8" t="n">
-        <v>0.746</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cecil</t>
+          <t>burleigh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>462009</v>
+        <v>1629777</v>
       </c>
       <c r="D9" t="n">
-        <v>12559</v>
+        <v>18910</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>24015</v>
+        <v>38015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.172</v>
       </c>
       <c r="H9" t="n">
-        <v>0.018</v>
+        <v>0.233</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="J9" t="n">
-        <v>0.182</v>
+        <v>0.297</v>
       </c>
       <c r="K9" t="n">
-        <v>0.738</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>charles</t>
+          <t>cass</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>955989</v>
+        <v>2513153</v>
       </c>
       <c r="D10" t="n">
-        <v>29098</v>
+        <v>28135</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>24017</v>
+        <v>38017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.035</v>
+        <v>0.09</v>
       </c>
       <c r="H10" t="n">
-        <v>0.034</v>
+        <v>0.113</v>
       </c>
       <c r="I10" t="n">
-        <v>0.107</v>
+        <v>0.142</v>
       </c>
       <c r="J10" t="n">
-        <v>0.157</v>
+        <v>0.233</v>
       </c>
       <c r="K10" t="n">
-        <v>0.667</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dorchester</t>
+          <t>cavalier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>211085</v>
+        <v>42971</v>
       </c>
       <c r="D11" t="n">
-        <v>3336</v>
+        <v>356</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>24019</v>
+        <v>38019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02</v>
+        <v>0.146</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006</v>
+        <v>0.272</v>
       </c>
       <c r="I11" t="n">
-        <v>0.011</v>
+        <v>0.165</v>
       </c>
       <c r="J11" t="n">
-        <v>0.119</v>
+        <v>0.222</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8440000000000001</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>frederick</t>
+          <t>dickey</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1638311</v>
+        <v>72214</v>
       </c>
       <c r="D12" t="n">
-        <v>41584</v>
+        <v>2956</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>24021</v>
+        <v>38021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.028</v>
+        <v>0.151</v>
       </c>
       <c r="H12" t="n">
-        <v>0.036</v>
+        <v>0.077</v>
       </c>
       <c r="I12" t="n">
-        <v>0.062</v>
+        <v>0.227</v>
       </c>
       <c r="J12" t="n">
-        <v>0.113</v>
+        <v>0.277</v>
       </c>
       <c r="K12" t="n">
-        <v>0.762</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>garrett</t>
+          <t>divide</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>129774</v>
+        <v>14978</v>
       </c>
       <c r="D13" t="n">
-        <v>3343</v>
+        <v>207</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>24023</v>
+        <v>38023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.077</v>
+        <v>0.1860000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008</v>
+        <v>0.168</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04</v>
+        <v>0.163</v>
       </c>
       <c r="J13" t="n">
-        <v>0.305</v>
+        <v>0.255</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5710000000000001</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>harford</t>
+          <t>dunn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1180854</v>
+        <v>43932</v>
       </c>
       <c r="D14" t="n">
-        <v>26700</v>
+        <v>828</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>24025</v>
+        <v>38025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008</v>
+        <v>0.195</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J14" t="n">
-        <v>0.168</v>
+        <v>0.252</v>
       </c>
       <c r="K14" t="n">
-        <v>0.778</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>howard</t>
+          <t>eddy</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1759037</v>
+        <v>47382</v>
       </c>
       <c r="D15" t="n">
-        <v>35306</v>
+        <v>670</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>24027</v>
+        <v>38027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.024</v>
+        <v>0.269</v>
       </c>
       <c r="H15" t="n">
-        <v>0.015</v>
+        <v>0.159</v>
       </c>
       <c r="I15" t="n">
-        <v>0.067</v>
+        <v>0.117</v>
       </c>
       <c r="J15" t="n">
-        <v>0.17</v>
+        <v>0.209</v>
       </c>
       <c r="K15" t="n">
-        <v>0.723</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>kent</t>
+          <t>emmons</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>114917</v>
+        <v>49490</v>
       </c>
       <c r="D16" t="n">
-        <v>6931</v>
+        <v>1423</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>24029</v>
+        <v>38029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005</v>
+        <v>0.16</v>
       </c>
       <c r="H16" t="n">
-        <v>0.014</v>
+        <v>0.221</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06</v>
+        <v>0.094</v>
       </c>
       <c r="J16" t="n">
-        <v>0.207</v>
+        <v>0.302</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7140000000000001</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>montgomery</t>
+          <t>foster</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7713958</v>
+        <v>56444</v>
       </c>
       <c r="D17" t="n">
-        <v>251340</v>
+        <v>1551</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>24031</v>
+        <v>38031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.025</v>
+        <v>0.265</v>
       </c>
       <c r="H17" t="n">
-        <v>0.029</v>
+        <v>0.081</v>
       </c>
       <c r="I17" t="n">
-        <v>0.041</v>
+        <v>0.081</v>
       </c>
       <c r="J17" t="n">
-        <v>0.128</v>
+        <v>0.27</v>
       </c>
       <c r="K17" t="n">
-        <v>0.777</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>prince george's</t>
+          <t>golden valley</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9586542</v>
+        <v>24466</v>
       </c>
       <c r="D18" t="n">
-        <v>240011</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>24033</v>
+        <v>38033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.187</v>
       </c>
       <c r="H18" t="n">
-        <v>0.034</v>
+        <v>0.206</v>
       </c>
       <c r="I18" t="n">
-        <v>0.064</v>
+        <v>0.149</v>
       </c>
       <c r="J18" t="n">
-        <v>0.094</v>
+        <v>0.256</v>
       </c>
       <c r="K18" t="n">
-        <v>0.72</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>queen anne's</t>
+          <t>grand forks</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>239546</v>
+        <v>1105243</v>
       </c>
       <c r="D19" t="n">
-        <v>6867</v>
+        <v>7190</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>24035</v>
+        <v>38035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002</v>
+        <v>0.097</v>
       </c>
       <c r="H19" t="n">
-        <v>0.042</v>
+        <v>0.122</v>
       </c>
       <c r="I19" t="n">
-        <v>0.041</v>
+        <v>0.222</v>
       </c>
       <c r="J19" t="n">
-        <v>0.309</v>
+        <v>0.253</v>
       </c>
       <c r="K19" t="n">
-        <v>0.605</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>somerset</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>185752</v>
+        <v>19010</v>
       </c>
       <c r="D20" t="n">
-        <v>2309</v>
+        <v>706</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>24039</v>
+        <v>38037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004</v>
+        <v>0.177</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01</v>
+        <v>0.233</v>
       </c>
       <c r="I20" t="n">
-        <v>0.047</v>
+        <v>0.125</v>
       </c>
       <c r="J20" t="n">
-        <v>0.128</v>
+        <v>0.275</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>st. mary's</t>
+          <t>griggs</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>483508</v>
+        <v>32330</v>
       </c>
       <c r="D21" t="n">
-        <v>16782</v>
+        <v>267</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>24037</v>
+        <v>38039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04</v>
+        <v>0.162</v>
       </c>
       <c r="H21" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.036</v>
+        <v>0.197</v>
       </c>
       <c r="J21" t="n">
-        <v>0.152</v>
+        <v>0.217</v>
       </c>
       <c r="K21" t="n">
-        <v>0.763</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>talbot</t>
+          <t>hettinger</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>178745</v>
+        <v>30648</v>
       </c>
       <c r="D22" t="n">
-        <v>1923</v>
+        <v>388</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>24041</v>
+        <v>38041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.012</v>
+        <v>0.218</v>
       </c>
       <c r="H22" t="n">
-        <v>0.012</v>
+        <v>0.207</v>
       </c>
       <c r="I22" t="n">
-        <v>0.006</v>
+        <v>0.15</v>
       </c>
       <c r="J22" t="n">
-        <v>0.127</v>
+        <v>0.232</v>
       </c>
       <c r="K22" t="n">
-        <v>0.843</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>washington</t>
+          <t>kidder</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>943537</v>
+        <v>27255</v>
       </c>
       <c r="D23" t="n">
-        <v>18816</v>
+        <v>773</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>24043</v>
+        <v>38043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.031</v>
+        <v>0.193</v>
       </c>
       <c r="H23" t="n">
-        <v>0.047</v>
+        <v>0.206</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>0.194</v>
+        <v>0.301</v>
       </c>
       <c r="K23" t="n">
-        <v>0.642</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>wicomico</t>
+          <t>lamoure</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>726169</v>
+        <v>50735</v>
       </c>
       <c r="D24" t="n">
-        <v>15891</v>
+        <v>1702</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>24045</v>
+        <v>38045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006</v>
+        <v>0.115</v>
       </c>
       <c r="H24" t="n">
-        <v>0.011</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>0.063</v>
+        <v>0.193</v>
       </c>
       <c r="J24" t="n">
-        <v>0.116</v>
+        <v>0.307</v>
       </c>
       <c r="K24" t="n">
-        <v>0.804</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>worcester</t>
+          <t>logan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>maryland</t>
+          <t>north dakota</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>329242</v>
+        <v>24033</v>
       </c>
       <c r="D25" t="n">
-        <v>8852</v>
+        <v>695</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>24047</v>
+        <v>38047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003</v>
+        <v>0.172</v>
       </c>
       <c r="H25" t="n">
-        <v>0.004</v>
+        <v>0.156</v>
       </c>
       <c r="I25" t="n">
-        <v>0.042</v>
+        <v>0.104</v>
       </c>
       <c r="J25" t="n">
-        <v>0.11</v>
+        <v>0.295</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8420000000000001</v>
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mchenry</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>57381</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2368</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F26" t="n">
+        <v>38049</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mcintosh</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>36110</v>
+      </c>
+      <c r="D27" t="n">
+        <v>962</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F27" t="n">
+        <v>38051</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>mckenzie</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>123602</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1125</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F28" t="n">
+        <v>38053</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mclean</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>132773</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2581</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F29" t="n">
+        <v>38055</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>mercer</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>110357</v>
+      </c>
+      <c r="D30" t="n">
+        <v>840</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F30" t="n">
+        <v>38057</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>morton</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>553155</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10467</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F31" t="n">
+        <v>38059</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mountrail</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>142773</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1745</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F32" t="n">
+        <v>38061</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>nelson</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>45304</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1116</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F33" t="n">
+        <v>38063</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>oliver</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>16595</v>
+      </c>
+      <c r="D34" t="n">
+        <v>222</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F34" t="n">
+        <v>38065</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>pembina</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>74232</v>
+      </c>
+      <c r="D35" t="n">
+        <v>808</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F35" t="n">
+        <v>38067</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.2160000000000001</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>pierce</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>48926</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1659</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F36" t="n">
+        <v>38069</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ramsey</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>156299</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F37" t="n">
+        <v>38071</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ransom</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>59380</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1101</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F38" t="n">
+        <v>38073</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>renville</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>30345</v>
+      </c>
+      <c r="D39" t="n">
+        <v>984</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F39" t="n">
+        <v>38075</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>richland</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>163442</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1410</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F40" t="n">
+        <v>38077</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.366</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>rolette</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>187498</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2436</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F41" t="n">
+        <v>38079</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>sargent</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>41718</v>
+      </c>
+      <c r="D42" t="n">
+        <v>541</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F42" t="n">
+        <v>38081</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.257</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>sheridan</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10811</v>
+      </c>
+      <c r="D43" t="n">
+        <v>195</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F43" t="n">
+        <v>38083</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.1860000000000001</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>sioux</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>71074</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1163</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F44" t="n">
+        <v>38085</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>3610</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F45" t="n">
+        <v>38087</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>513349</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5921</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F46" t="n">
+        <v>38089</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>steele</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>17358</v>
+      </c>
+      <c r="D47" t="n">
+        <v>157</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F47" t="n">
+        <v>38091</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.283</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>stutsman</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>329133</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6321</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F48" t="n">
+        <v>38093</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>towner</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>27881</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F49" t="n">
+        <v>38095</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>traill</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>96838</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1544</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F50" t="n">
+        <v>38097</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>walsh</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>177193</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1906</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F51" t="n">
+        <v>38099</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ward</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>907141</v>
+      </c>
+      <c r="D52" t="n">
+        <v>16668</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F52" t="n">
+        <v>38101</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>wells</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>41944</v>
+      </c>
+      <c r="D53" t="n">
+        <v>554</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F53" t="n">
+        <v>38103</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.226</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>williams</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>north dakota</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>454754</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3506</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F54" t="n">
+        <v>38105</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.1860000000000001</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.223</v>
       </c>
     </row>
   </sheetData>
